--- a/Plan/リスト/素材リスト.xlsx
+++ b/Plan/リスト/素材リスト.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19395" windowHeight="9645" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19395" windowHeight="9645"/>
   </bookViews>
   <sheets>
-    <sheet name="モデル" sheetId="1" r:id="rId1"/>
+    <sheet name="モデルとか" sheetId="1" r:id="rId1"/>
     <sheet name="エフェクト" sheetId="2" r:id="rId2"/>
     <sheet name="サウンド" sheetId="3" r:id="rId3"/>
     <sheet name="アニメーション" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t>▼モデル</t>
     <phoneticPr fontId="1"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>playBgm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>球がバウンドするときに接点に発生（boxHitとは同時にでる）
 反射する面に対して垂直に表示</t>
     <rPh sb="0" eb="1">
@@ -350,15 +346,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shootSe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boundsSe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hitBoxSe</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -395,10 +383,6 @@
     <rPh sb="10" eb="11">
       <t>トキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>goalSe</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -552,10 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>levelNow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>levelUpAnimation</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,28 +600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シュートを決めた際、バウンド数に応じて評価メッセージが表示される</t>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>warningMessage</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,6 +620,69 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３Dテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>levelNow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュートを決めた際、バウンド数に応じて評価メッセージが表示される
+アニメーション：levelUpAnimation</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hitBoxSe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shootSe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>playBgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalSe</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -730,12 +751,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="modelList" displayName="modelList" ref="A3:C21" totalsRowShown="0">
-  <autoFilter ref="A3:C21"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="modelList" displayName="modelList" ref="A3:D21" totalsRowShown="0">
+  <autoFilter ref="A3:D21"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="NO"/>
     <tableColumn id="2" name="ファイル名"/>
     <tableColumn id="3" name="使用箇所、説明"/>
+    <tableColumn id="4" name="カテゴリ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,12 +776,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="soundList" displayName="soundList" ref="A3:C12" totalsRowShown="0">
-  <autoFilter ref="A3:C12"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="soundList" displayName="soundList" ref="A3:D12" totalsRowShown="0">
+  <autoFilter ref="A3:D12"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="NO"/>
     <tableColumn id="2" name="ファイル名"/>
     <tableColumn id="3" name="使用箇所、説明"/>
+    <tableColumn id="4" name="カテゴリ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1066,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,6 +1098,7 @@
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="58.625" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1092,6 +1116,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -1103,11 +1130,14 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1120,11 +1150,14 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1137,11 +1170,14 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1154,11 +1190,14 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1171,11 +1210,14 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1188,11 +1230,14 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1205,11 +1250,14 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1222,11 +1270,14 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1239,11 +1290,14 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1256,11 +1310,14 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1268,13 +1325,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1282,13 +1342,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1296,65 +1359,101 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1402,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -1419,10 +1518,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -1430,13 +1529,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1450,7 +1549,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1464,7 +1563,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1478,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1492,7 +1591,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1500,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1514,13 +1613,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1539,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1550,12 +1649,12 @@
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1565,8 +1664,11 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1574,81 +1676,123 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1698,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1712,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">

--- a/Plan/リスト/素材リスト.xlsx
+++ b/Plan/リスト/素材リスト.xlsx
@@ -1089,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1459,7 +1459,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1470,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E12"/>
     </sheetView>
   </sheetViews>
@@ -1630,8 +1630,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1640,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1800,8 +1801,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1810,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1908,8 +1910,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>